--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Adam9-Itgav.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Adam9-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.1881650818575</v>
+        <v>10.32689766666667</v>
       </c>
       <c r="H2">
-        <v>10.1881650818575</v>
+        <v>30.980693</v>
       </c>
       <c r="I2">
-        <v>0.2027910551156987</v>
+        <v>0.2044815006034941</v>
       </c>
       <c r="J2">
-        <v>0.2027910551156987</v>
+        <v>0.204481500603494</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N2">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q2">
-        <v>128.7171991531844</v>
+        <v>170.761490364524</v>
       </c>
       <c r="R2">
-        <v>128.7171991531844</v>
+        <v>1536.853413280716</v>
       </c>
       <c r="S2">
-        <v>0.03524724670173803</v>
+        <v>0.04335934413539932</v>
       </c>
       <c r="T2">
-        <v>0.03524724670173803</v>
+        <v>0.04335934413539932</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.1881650818575</v>
+        <v>10.32689766666667</v>
       </c>
       <c r="H3">
-        <v>10.1881650818575</v>
+        <v>30.980693</v>
       </c>
       <c r="I3">
-        <v>0.2027910551156987</v>
+        <v>0.2044815006034941</v>
       </c>
       <c r="J3">
-        <v>0.2027910551156987</v>
+        <v>0.204481500603494</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N3">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q3">
-        <v>413.4349711195934</v>
+        <v>419.4850960501284</v>
       </c>
       <c r="R3">
-        <v>413.4349711195934</v>
+        <v>3775.365864451156</v>
       </c>
       <c r="S3">
-        <v>0.1132128768963952</v>
+        <v>0.1065146398083164</v>
       </c>
       <c r="T3">
-        <v>0.1132128768963952</v>
+        <v>0.1065146398083164</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.1881650818575</v>
+        <v>10.32689766666667</v>
       </c>
       <c r="H4">
-        <v>10.1881650818575</v>
+        <v>30.980693</v>
       </c>
       <c r="I4">
-        <v>0.2027910551156987</v>
+        <v>0.2044815006034941</v>
       </c>
       <c r="J4">
-        <v>0.2027910551156987</v>
+        <v>0.204481500603494</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N4">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q4">
-        <v>198.4077051890598</v>
+        <v>215.060008767899</v>
       </c>
       <c r="R4">
-        <v>198.4077051890598</v>
+        <v>1935.540078911091</v>
       </c>
       <c r="S4">
-        <v>0.05433093151756549</v>
+        <v>0.05460751665977838</v>
       </c>
       <c r="T4">
-        <v>0.05433093151756549</v>
+        <v>0.05460751665977837</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.3584881895594</v>
+        <v>29.37031933333333</v>
       </c>
       <c r="H5">
-        <v>29.3584881895594</v>
+        <v>88.110958</v>
       </c>
       <c r="I5">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="J5">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N5">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q5">
-        <v>370.9149136051253</v>
+        <v>485.655969849544</v>
       </c>
       <c r="R5">
-        <v>370.9149136051253</v>
+        <v>4370.903728645896</v>
       </c>
       <c r="S5">
-        <v>0.1015694060405622</v>
+        <v>0.123316587851076</v>
       </c>
       <c r="T5">
-        <v>0.1015694060405622</v>
+        <v>0.123316587851076</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.3584881895594</v>
+        <v>29.37031933333333</v>
       </c>
       <c r="H6">
-        <v>29.3584881895594</v>
+        <v>88.110958</v>
       </c>
       <c r="I6">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="J6">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N6">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q6">
-        <v>1191.365237924909</v>
+        <v>1193.040894201393</v>
       </c>
       <c r="R6">
-        <v>1191.365237924909</v>
+        <v>10737.36804781254</v>
       </c>
       <c r="S6">
-        <v>0.326237245133338</v>
+        <v>0.3029340549139973</v>
       </c>
       <c r="T6">
-        <v>0.326237245133338</v>
+        <v>0.3029340549139973</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.3584881895594</v>
+        <v>29.37031933333333</v>
       </c>
       <c r="H7">
-        <v>29.3584881895594</v>
+        <v>88.110958</v>
       </c>
       <c r="I7">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="J7">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N7">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q7">
-        <v>571.7369342476921</v>
+        <v>611.643625919794</v>
       </c>
       <c r="R7">
-        <v>571.7369342476921</v>
+        <v>5504.792633278146</v>
       </c>
       <c r="S7">
-        <v>0.1565614611139962</v>
+        <v>0.1553070684020539</v>
       </c>
       <c r="T7">
-        <v>0.1565614611139962</v>
+        <v>0.1553070684020539</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.6930630515976</v>
+        <v>10.80562866666667</v>
       </c>
       <c r="H8">
-        <v>10.6930630515976</v>
+        <v>32.416886</v>
       </c>
       <c r="I8">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="J8">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N8">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q8">
-        <v>135.0960762130785</v>
+        <v>178.677596603048</v>
       </c>
       <c r="R8">
-        <v>135.0960762130785</v>
+        <v>1608.098369427432</v>
       </c>
       <c r="S8">
-        <v>0.03699400513720218</v>
+        <v>0.0453693826626799</v>
       </c>
       <c r="T8">
-        <v>0.03699400513720218</v>
+        <v>0.0453693826626799</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.6930630515976</v>
+        <v>10.80562866666667</v>
       </c>
       <c r="H9">
-        <v>10.6930630515976</v>
+        <v>32.416886</v>
       </c>
       <c r="I9">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="J9">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N9">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q9">
-        <v>433.9236926764865</v>
+        <v>438.9314511898124</v>
       </c>
       <c r="R9">
-        <v>433.9236926764865</v>
+        <v>3950.383060708312</v>
       </c>
       <c r="S9">
-        <v>0.1188234015820635</v>
+        <v>0.1114524112161485</v>
       </c>
       <c r="T9">
-        <v>0.1188234015820635</v>
+        <v>0.1114524112161485</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.6930630515976</v>
+        <v>10.80562866666667</v>
       </c>
       <c r="H10">
-        <v>10.6930630515976</v>
+        <v>32.416886</v>
       </c>
       <c r="I10">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="J10">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N10">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q10">
-        <v>208.2402556754212</v>
+        <v>225.029691472298</v>
       </c>
       <c r="R10">
-        <v>208.2402556754212</v>
+        <v>2025.267223250682</v>
       </c>
       <c r="S10">
-        <v>0.0570234258771392</v>
+        <v>0.05713899435055041</v>
       </c>
       <c r="T10">
-        <v>0.0570234258771392</v>
+        <v>0.0571389943505504</v>
       </c>
     </row>
   </sheetData>
